--- a/app/web/public/plantillas/Plantilla_ImportacionClientes_completo.xlsx
+++ b/app/web/public/plantillas/Plantilla_ImportacionClientes_completo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://contasisitc-my.sharepoint.com/personal/a_huaman_contasiscorp_com/Documents/Clientes BC/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FacturaFacil\app\web\public\plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="14_{24749137-6777-40B1-A34C-823873DAFFB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BC09AB08-5FEA-4CBA-983D-27E77008FB19}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFE057DB-E73C-4A25-8A9C-68FAEFD1C5C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lista Clientes" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="81">
   <si>
     <t>NUM. DOCUMENTO</t>
   </si>
@@ -268,6 +268,15 @@
   </si>
   <si>
     <t>FRENDE AL GRIGO A</t>
+  </si>
+  <si>
+    <t>0235265</t>
+  </si>
+  <si>
+    <t>023652</t>
+  </si>
+  <si>
+    <t>125632</t>
   </si>
 </sst>
 </file>
@@ -391,7 +400,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -434,6 +443,11 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -741,14 +755,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.21875" customWidth="1"/>
-    <col min="2" max="3" width="28.33203125" customWidth="1"/>
+    <col min="2" max="2" width="28.33203125" customWidth="1"/>
+    <col min="3" max="3" width="28.33203125" style="21" customWidth="1"/>
     <col min="4" max="5" width="25.88671875" customWidth="1"/>
     <col min="6" max="9" width="23.44140625" customWidth="1"/>
     <col min="10" max="12" width="17.109375" customWidth="1"/>
@@ -758,7 +773,7 @@
     <col min="19" max="19" width="18.33203125" customWidth="1"/>
     <col min="20" max="20" width="13.109375" customWidth="1"/>
     <col min="21" max="21" width="14" customWidth="1"/>
-    <col min="22" max="22" width="11.109375" customWidth="1"/>
+    <col min="22" max="22" width="11.109375" style="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
@@ -768,7 +783,7 @@
       <c r="B1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="20" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -825,7 +840,7 @@
       <c r="U1" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="V1" s="22" t="s">
         <v>71</v>
       </c>
     </row>
@@ -836,7 +851,7 @@
       <c r="B2">
         <v>6</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="21">
         <v>23656985698</v>
       </c>
       <c r="D2" t="s">
@@ -879,8 +894,8 @@
       <c r="U2" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="V2">
-        <v>1256326</v>
+      <c r="V2" s="21" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
@@ -890,8 +905,8 @@
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3">
-        <v>56856985</v>
+      <c r="C3" s="21" t="s">
+        <v>78</v>
       </c>
       <c r="F3" t="s">
         <v>46</v>
@@ -925,8 +940,8 @@
       <c r="T3" t="s">
         <v>53</v>
       </c>
-      <c r="V3">
-        <v>85623</v>
+      <c r="V3" s="21" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -943,7 +958,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
